--- a/biology/Microbiologie/Vacuome/Vacuome.xlsx
+++ b/biology/Microbiologie/Vacuome/Vacuome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vacuome est l'ensemble des organites et vésicules qui concernent l'importation, exportation, tri et transformation des molécules, protéines, etc. Chez les végétaux, les vacuoles font également partie du vacuome.
 </t>
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vacuome peut être divisé en deux domaines, séparés par l'appareil de Golgi. D'un côté, le réticulum endoplasmique est le théâtre d'un trafic unidirectionnel, à savoir : réticulum endoplasmique rugueux (RER) suivi du réticulum endoplasmique lisse (REL) suivi à son tour de l'appareil de Golgi. Les produits sécrétoires ne vont jamais dans l'autre sens et ne peuvent remonter le courant sécrétoire, l'appareil de Golgi constituant une barrière.
 De l'autre côté de l'appareil de Golgi se trouvent un ensemble de vésicules de tailles et de fonctions variables. On peut trouver des lysosomes primaires, des vésicules de transport à destination des vacuoles ou destinées à l'exportation hors de la cellule.
